--- a/intervals.xlsx
+++ b/intervals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8CFF2560-C207-49A0-AC28-B968BA8115DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D046E002-BC51-42F3-94AA-A6D468BC7EF0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8CFF2560-C207-49A0-AC28-B968BA8115DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D86CA00C-67DF-4E75-8D8E-83BCB0E2B53E}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{2F8B27F4-3A51-4BB5-9C18-660930B07DAF}"/>
   </bookViews>
@@ -44,46 +44,46 @@
     <t>Test 1</t>
   </si>
   <si>
-    <t>[-0.079 , 0.079]</t>
-  </si>
-  <si>
-    <t>[-0.177 , 0.177]</t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
-    <t>[-0.039 , 0.039]</t>
-  </si>
-  <si>
-    <t>[-0.087 , 0.087]</t>
-  </si>
-  <si>
     <t>Test 3</t>
   </si>
   <si>
-    <t>[-0.052 , 0.052]</t>
-  </si>
-  <si>
-    <t>[-0.117 , 0.117]</t>
-  </si>
-  <si>
     <t>Test 4</t>
   </si>
   <si>
-    <t>[-0.050 , 0.050]</t>
-  </si>
-  <si>
-    <t>[-0.112 , 0.112]</t>
-  </si>
-  <si>
     <t>Test 5</t>
   </si>
   <si>
-    <t>[-0.060 , 0.060]</t>
-  </si>
-  <si>
-    <t>[-0.134 , 0.134]</t>
+    <t>[-0.037 , 0.037]</t>
+  </si>
+  <si>
+    <t>[-0.082 , 0.082]</t>
+  </si>
+  <si>
+    <t>[-0.055 , 0.055]</t>
+  </si>
+  <si>
+    <t>[-0.124 , 0.124]</t>
+  </si>
+  <si>
+    <t>[-0.062 , 0.062]</t>
+  </si>
+  <si>
+    <t>[-0.138 , 0.138]</t>
+  </si>
+  <si>
+    <t>[-0.078 , 0.078]</t>
+  </si>
+  <si>
+    <t>[-0.175 , 0.175]</t>
+  </si>
+  <si>
+    <t>[-0.064 , 0.064]</t>
+  </si>
+  <si>
+    <t>[-0.144 , 0.144]</t>
   </si>
 </sst>
 </file>
@@ -456,48 +456,48 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -512,6 +512,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -734,12 +740,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -750,6 +750,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A6BBF0-10BA-4F67-9282-16B0D329A425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D9D199-33BC-4198-88E8-0EF17307412F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -768,15 +777,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A6BBF0-10BA-4F67-9282-16B0D329A425}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D4BF28-55DF-47F8-A8DA-456C13682996}">
   <ds:schemaRefs>

--- a/intervals.xlsx
+++ b/intervals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8CFF2560-C207-49A0-AC28-B968BA8115DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D86CA00C-67DF-4E75-8D8E-83BCB0E2B53E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C07642C7-9EE9-483B-9795-CC48C222427D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5084B988-3052-4B0D-965B-E27D472CEDD4}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{2F8B27F4-3A51-4BB5-9C18-660930B07DAF}"/>
+    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{FC9A0747-7EBC-4FD2-9DB9-04EF4C29CC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,46 +44,46 @@
     <t>Test 1</t>
   </si>
   <si>
+    <t>[-0.051 , 0.051]</t>
+  </si>
+  <si>
+    <t>[-0.113 , 0.113]</t>
+  </si>
+  <si>
     <t>Test 2</t>
   </si>
   <si>
+    <t>[-0.050 , 0.050]</t>
+  </si>
+  <si>
+    <t>[-0.111 , 0.111]</t>
+  </si>
+  <si>
     <t>Test 3</t>
   </si>
   <si>
+    <t>[-0.067 , 0.067]</t>
+  </si>
+  <si>
+    <t>[-0.151 , 0.151]</t>
+  </si>
+  <si>
     <t>Test 4</t>
   </si>
   <si>
+    <t>[-0.097 , 0.097]</t>
+  </si>
+  <si>
+    <t>[-0.218 , 0.218]</t>
+  </si>
+  <si>
     <t>Test 5</t>
   </si>
   <si>
-    <t>[-0.037 , 0.037]</t>
-  </si>
-  <si>
-    <t>[-0.082 , 0.082]</t>
-  </si>
-  <si>
-    <t>[-0.055 , 0.055]</t>
-  </si>
-  <si>
-    <t>[-0.124 , 0.124]</t>
-  </si>
-  <si>
-    <t>[-0.062 , 0.062]</t>
-  </si>
-  <si>
-    <t>[-0.138 , 0.138]</t>
-  </si>
-  <si>
-    <t>[-0.078 , 0.078]</t>
-  </si>
-  <si>
-    <t>[-0.175 , 0.175]</t>
-  </si>
-  <si>
-    <t>[-0.064 , 0.064]</t>
-  </si>
-  <si>
-    <t>[-0.144 , 0.144]</t>
+    <t>[-0.025 , 0.025]</t>
+  </si>
+  <si>
+    <t>[-0.056 , 0.056]</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DFA551-F036-4242-910C-659CD2C30A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BE9901-B0ED-42EE-8777-CA13E9F33989}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -456,48 +456,48 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A6BBF0-10BA-4F67-9282-16B0D329A425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C1760C-B234-421F-978D-57614414A2DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D9D199-33BC-4198-88E8-0EF17307412F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F46DC18-BDDF-4121-8BF7-32DB708585B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -778,7 +778,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D4BF28-55DF-47F8-A8DA-456C13682996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F39ACE-C29D-4DB6-A128-1D17EB46938C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>

--- a/intervals.xlsx
+++ b/intervals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C07642C7-9EE9-483B-9795-CC48C222427D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5084B988-3052-4B0D-965B-E27D472CEDD4}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{C07642C7-9EE9-483B-9795-CC48C222427D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{298ECF7E-B185-4685-B37B-430A135D5886}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{FC9A0747-7EBC-4FD2-9DB9-04EF4C29CC73}"/>
   </bookViews>
@@ -44,46 +44,46 @@
     <t>Test 1</t>
   </si>
   <si>
-    <t>[-0.051 , 0.051]</t>
-  </si>
-  <si>
-    <t>[-0.113 , 0.113]</t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
     <t>[-0.050 , 0.050]</t>
   </si>
   <si>
-    <t>[-0.111 , 0.111]</t>
-  </si>
-  <si>
     <t>Test 3</t>
   </si>
   <si>
-    <t>[-0.067 , 0.067]</t>
-  </si>
-  <si>
-    <t>[-0.151 , 0.151]</t>
-  </si>
-  <si>
     <t>Test 4</t>
   </si>
   <si>
-    <t>[-0.097 , 0.097]</t>
-  </si>
-  <si>
-    <t>[-0.218 , 0.218]</t>
-  </si>
-  <si>
     <t>Test 5</t>
   </si>
   <si>
-    <t>[-0.025 , 0.025]</t>
-  </si>
-  <si>
-    <t>[-0.056 , 0.056]</t>
+    <t>[-0.121 , 0.121]</t>
+  </si>
+  <si>
+    <t>[-0.271 , 0.271]</t>
+  </si>
+  <si>
+    <t>[-0.112 , 0.112]</t>
+  </si>
+  <si>
+    <t>[-0.130 , 0.130]</t>
+  </si>
+  <si>
+    <t>[-0.290 , 0.290]</t>
+  </si>
+  <si>
+    <t>[-0.418 , 0.418]</t>
+  </si>
+  <si>
+    <t>[-0.934 , 0.934]</t>
+  </si>
+  <si>
+    <t>[-0.044 , 0.044]</t>
+  </si>
+  <si>
+    <t>[-0.098 , 0.098]</t>
   </si>
 </sst>
 </file>
@@ -456,48 +456,48 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -512,12 +512,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -740,6 +734,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -750,15 +750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C1760C-B234-421F-978D-57614414A2DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F46DC18-BDDF-4121-8BF7-32DB708585B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -777,6 +768,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C1760C-B234-421F-978D-57614414A2DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F39ACE-C29D-4DB6-A128-1D17EB46938C}">
   <ds:schemaRefs>

--- a/intervals.xlsx
+++ b/intervals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{C07642C7-9EE9-483B-9795-CC48C222427D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{298ECF7E-B185-4685-B37B-430A135D5886}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{C07642C7-9EE9-483B-9795-CC48C222427D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDE247C6-6D88-4985-B0EB-50DE383E2342}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{FC9A0747-7EBC-4FD2-9DB9-04EF4C29CC73}"/>
+    <workbookView xWindow="2052" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{FC9A0747-7EBC-4FD2-9DB9-04EF4C29CC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Confidence Interval</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision Interval</t>
-  </si>
-  <si>
     <t>Test 1</t>
   </si>
   <si>
@@ -84,6 +81,27 @@
   </si>
   <si>
     <t>[-0.098 , 0.098]</t>
+  </si>
+  <si>
+    <t>True Mean Estimate</t>
+  </si>
+  <si>
+    <t>Precision Interval</t>
+  </si>
+  <si>
+    <t>[1.449 , 1.691]</t>
+  </si>
+  <si>
+    <t>[0.933 , 1.033]</t>
+  </si>
+  <si>
+    <t>[1.349 , 1.609]</t>
+  </si>
+  <si>
+    <t>[1.708 , 2.543]</t>
+  </si>
+  <si>
+    <t>[1.284 , 1.372]</t>
   </si>
 </sst>
 </file>
@@ -435,75 +453,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BE9901-B0ED-42EE-8777-CA13E9F33989}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -512,6 +548,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -734,22 +779,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F39ACE-C29D-4DB6-A128-1D17EB46938C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F46DC18-BDDF-4121-8BF7-32DB708585B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -768,19 +812,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C1760C-B234-421F-978D-57614414A2DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F39ACE-C29D-4DB6-A128-1D17EB46938C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>